--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1262,7 +1308,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="264">
+      <c r="J2" t="s" s="309">
         <v>129</v>
       </c>
     </row>
@@ -1294,7 +1340,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="265">
+      <c r="J3" t="s" s="310">
         <v>129</v>
       </c>
     </row>
@@ -1326,7 +1372,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="266">
+      <c r="J4" t="s" s="311">
         <v>129</v>
       </c>
     </row>
@@ -1356,7 +1402,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="267">
+      <c r="J5" t="s" s="312">
         <v>131</v>
       </c>
     </row>
@@ -1388,7 +1434,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="268">
+      <c r="J6" t="s" s="313">
         <v>129</v>
       </c>
     </row>
@@ -1420,7 +1466,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="269">
+      <c r="J7" t="s" s="314">
         <v>129</v>
       </c>
     </row>
@@ -1452,7 +1498,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="270">
+      <c r="J8" t="s" s="315">
         <v>129</v>
       </c>
     </row>
@@ -1484,7 +1530,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="271">
+      <c r="J9" t="s" s="316">
         <v>131</v>
       </c>
     </row>
@@ -1516,7 +1562,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="272">
+      <c r="J10" t="s" s="317">
         <v>131</v>
       </c>
     </row>
@@ -1548,7 +1594,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="273">
+      <c r="J11" t="s" s="318">
         <v>129</v>
       </c>
     </row>
@@ -1578,7 +1624,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="274">
+      <c r="J12" t="s" s="319">
         <v>131</v>
       </c>
     </row>
@@ -1610,7 +1656,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="252">
+      <c r="J13" t="s" s="320">
         <v>129</v>
       </c>
     </row>
@@ -1642,7 +1688,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="275">
+      <c r="J14" t="s" s="321">
         <v>129</v>
       </c>
     </row>
@@ -1672,7 +1718,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="276">
+      <c r="J15" t="s" s="322">
         <v>129</v>
       </c>
     </row>
@@ -1704,7 +1750,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="277">
+      <c r="J16" t="s" s="323">
         <v>129</v>
       </c>
     </row>
@@ -1736,7 +1782,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="278">
+      <c r="J17" t="s" s="324">
         <v>129</v>
       </c>
     </row>
@@ -1768,7 +1814,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="279">
+      <c r="J18" t="s" s="325">
         <v>129</v>
       </c>
     </row>
@@ -1800,7 +1846,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="280">
+      <c r="J19" t="s" s="326">
         <v>129</v>
       </c>
     </row>
@@ -1830,7 +1876,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="281">
+      <c r="J20" t="s" s="327">
         <v>131</v>
       </c>
     </row>
@@ -1862,7 +1908,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="282">
+      <c r="J21" t="s" s="328">
         <v>129</v>
       </c>
     </row>
@@ -1892,7 +1938,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="283">
+      <c r="J22" t="s" s="329">
         <v>131</v>
       </c>
     </row>
@@ -1922,7 +1968,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="284">
+      <c r="J23" t="s" s="330">
         <v>131</v>
       </c>
     </row>
@@ -1937,7 +1983,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="285">
+      <c r="J24" t="s" s="331">
         <v>131</v>
       </c>
     </row>

--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1308,7 +1331,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="309">
+      <c r="J2" t="s" s="332">
         <v>129</v>
       </c>
     </row>
@@ -1340,7 +1363,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="310">
+      <c r="J3" t="s" s="333">
         <v>129</v>
       </c>
     </row>
@@ -1372,7 +1395,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="311">
+      <c r="J4" t="s" s="334">
         <v>129</v>
       </c>
     </row>
@@ -1402,7 +1425,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="312">
+      <c r="J5" t="s" s="335">
         <v>131</v>
       </c>
     </row>
@@ -1434,7 +1457,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="313">
+      <c r="J6" t="s" s="336">
         <v>129</v>
       </c>
     </row>
@@ -1466,7 +1489,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="314">
+      <c r="J7" t="s" s="337">
         <v>129</v>
       </c>
     </row>
@@ -1498,7 +1521,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="315">
+      <c r="J8" t="s" s="338">
         <v>129</v>
       </c>
     </row>
@@ -1530,7 +1553,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="316">
+      <c r="J9" t="s" s="339">
         <v>131</v>
       </c>
     </row>
@@ -1562,7 +1585,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="317">
+      <c r="J10" t="s" s="340">
         <v>131</v>
       </c>
     </row>
@@ -1594,7 +1617,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="318">
+      <c r="J11" t="s" s="341">
         <v>129</v>
       </c>
     </row>
@@ -1624,7 +1647,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="319">
+      <c r="J12" t="s" s="342">
         <v>131</v>
       </c>
     </row>
@@ -1656,7 +1679,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="320">
+      <c r="J13" t="s" s="343">
         <v>129</v>
       </c>
     </row>
@@ -1688,7 +1711,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="321">
+      <c r="J14" t="s" s="344">
         <v>129</v>
       </c>
     </row>
@@ -1718,7 +1741,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="322">
+      <c r="J15" t="s" s="345">
         <v>129</v>
       </c>
     </row>
@@ -1750,7 +1773,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="323">
+      <c r="J16" t="s" s="346">
         <v>129</v>
       </c>
     </row>
@@ -1782,7 +1805,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="324">
+      <c r="J17" t="s" s="347">
         <v>129</v>
       </c>
     </row>
@@ -1814,7 +1837,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="325">
+      <c r="J18" t="s" s="348">
         <v>129</v>
       </c>
     </row>
@@ -1846,7 +1869,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="326">
+      <c r="J19" t="s" s="349">
         <v>129</v>
       </c>
     </row>
@@ -1876,7 +1899,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="327">
+      <c r="J20" t="s" s="350">
         <v>131</v>
       </c>
     </row>
@@ -1908,7 +1931,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="328">
+      <c r="J21" t="s" s="351">
         <v>129</v>
       </c>
     </row>
@@ -1938,7 +1961,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="329">
+      <c r="J22" t="s" s="352">
         <v>131</v>
       </c>
     </row>
@@ -1968,7 +1991,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="330">
+      <c r="J23" t="s" s="353">
         <v>131</v>
       </c>
     </row>
@@ -1983,7 +2006,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="331">
+      <c r="J24" t="s" s="354">
         <v>131</v>
       </c>
     </row>

--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1331,7 +1354,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="332">
+      <c r="J2" t="s" s="355">
         <v>129</v>
       </c>
     </row>
@@ -1363,7 +1386,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="333">
+      <c r="J3" t="s" s="356">
         <v>129</v>
       </c>
     </row>
@@ -1395,7 +1418,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="334">
+      <c r="J4" t="s" s="357">
         <v>129</v>
       </c>
     </row>
@@ -1425,7 +1448,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="335">
+      <c r="J5" t="s" s="358">
         <v>131</v>
       </c>
     </row>
@@ -1457,7 +1480,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="336">
+      <c r="J6" t="s" s="359">
         <v>129</v>
       </c>
     </row>
@@ -1489,7 +1512,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="337">
+      <c r="J7" t="s" s="360">
         <v>129</v>
       </c>
     </row>
@@ -1521,7 +1544,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="338">
+      <c r="J8" t="s" s="361">
         <v>129</v>
       </c>
     </row>
@@ -1553,7 +1576,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="339">
+      <c r="J9" t="s" s="362">
         <v>131</v>
       </c>
     </row>
@@ -1585,7 +1608,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="340">
+      <c r="J10" t="s" s="363">
         <v>131</v>
       </c>
     </row>
@@ -1617,7 +1640,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="341">
+      <c r="J11" t="s" s="364">
         <v>129</v>
       </c>
     </row>
@@ -1647,7 +1670,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="342">
+      <c r="J12" t="s" s="365">
         <v>131</v>
       </c>
     </row>
@@ -1679,7 +1702,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="343">
+      <c r="J13" t="s" s="366">
         <v>129</v>
       </c>
     </row>
@@ -1711,7 +1734,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="344">
+      <c r="J14" t="s" s="367">
         <v>129</v>
       </c>
     </row>
@@ -1741,7 +1764,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="345">
+      <c r="J15" t="s" s="368">
         <v>129</v>
       </c>
     </row>
@@ -1773,7 +1796,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="346">
+      <c r="J16" t="s" s="369">
         <v>129</v>
       </c>
     </row>
@@ -1805,7 +1828,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="347">
+      <c r="J17" t="s" s="370">
         <v>129</v>
       </c>
     </row>
@@ -1837,7 +1860,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="348">
+      <c r="J18" t="s" s="371">
         <v>129</v>
       </c>
     </row>
@@ -1869,7 +1892,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="349">
+      <c r="J19" t="s" s="372">
         <v>129</v>
       </c>
     </row>
@@ -1899,7 +1922,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="350">
+      <c r="J20" t="s" s="373">
         <v>131</v>
       </c>
     </row>
@@ -1931,7 +1954,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="351">
+      <c r="J21" t="s" s="374">
         <v>129</v>
       </c>
     </row>
@@ -1961,7 +1984,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="352">
+      <c r="J22" t="s" s="375">
         <v>131</v>
       </c>
     </row>
@@ -1991,7 +2014,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="353">
+      <c r="J23" t="s" s="376">
         <v>131</v>
       </c>
     </row>
@@ -2006,7 +2029,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="354">
+      <c r="J24" t="s" s="377">
         <v>131</v>
       </c>
     </row>

--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1354,7 +1400,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="355">
+      <c r="J2" t="s" s="401">
         <v>129</v>
       </c>
     </row>
@@ -1386,7 +1432,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="356">
+      <c r="J3" t="s" s="402">
         <v>129</v>
       </c>
     </row>
@@ -1418,7 +1464,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="357">
+      <c r="J4" t="s" s="403">
         <v>129</v>
       </c>
     </row>
@@ -1448,7 +1494,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="358">
+      <c r="J5" t="s" s="404">
         <v>131</v>
       </c>
     </row>
@@ -1480,7 +1526,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="359">
+      <c r="J6" t="s" s="405">
         <v>129</v>
       </c>
     </row>
@@ -1512,7 +1558,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="360">
+      <c r="J7" t="s" s="406">
         <v>129</v>
       </c>
     </row>
@@ -1544,7 +1590,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="361">
+      <c r="J8" t="s" s="407">
         <v>129</v>
       </c>
     </row>
@@ -1576,7 +1622,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="362">
+      <c r="J9" t="s" s="408">
         <v>131</v>
       </c>
     </row>
@@ -1608,7 +1654,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="363">
+      <c r="J10" t="s" s="409">
         <v>131</v>
       </c>
     </row>
@@ -1640,7 +1686,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="364">
+      <c r="J11" t="s" s="410">
         <v>129</v>
       </c>
     </row>
@@ -1670,7 +1716,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="365">
+      <c r="J12" t="s" s="411">
         <v>131</v>
       </c>
     </row>
@@ -1702,7 +1748,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="366">
+      <c r="J13" t="s" s="412">
         <v>129</v>
       </c>
     </row>
@@ -1734,7 +1780,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="367">
+      <c r="J14" t="s" s="413">
         <v>129</v>
       </c>
     </row>
@@ -1764,7 +1810,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="368">
+      <c r="J15" t="s" s="414">
         <v>129</v>
       </c>
     </row>
@@ -1796,7 +1842,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="369">
+      <c r="J16" t="s" s="415">
         <v>129</v>
       </c>
     </row>
@@ -1828,7 +1874,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="370">
+      <c r="J17" t="s" s="416">
         <v>129</v>
       </c>
     </row>
@@ -1860,7 +1906,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="371">
+      <c r="J18" t="s" s="417">
         <v>129</v>
       </c>
     </row>
@@ -1892,7 +1938,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="372">
+      <c r="J19" t="s" s="418">
         <v>129</v>
       </c>
     </row>
@@ -1922,7 +1968,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="373">
+      <c r="J20" t="s" s="419">
         <v>131</v>
       </c>
     </row>
@@ -1954,7 +2000,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="374">
+      <c r="J21" t="s" s="420">
         <v>129</v>
       </c>
     </row>
@@ -1984,7 +2030,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="375">
+      <c r="J22" t="s" s="421">
         <v>131</v>
       </c>
     </row>
@@ -2014,7 +2060,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="376">
+      <c r="J23" t="s" s="422">
         <v>131</v>
       </c>
     </row>
@@ -2029,7 +2075,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="377">
+      <c r="J24" t="s" s="423">
         <v>131</v>
       </c>
     </row>

--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1400,7 +1469,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="401">
+      <c r="J2" t="s" s="470">
         <v>129</v>
       </c>
     </row>
@@ -1432,7 +1501,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="402">
+      <c r="J3" t="s" s="471">
         <v>129</v>
       </c>
     </row>
@@ -1464,7 +1533,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="403">
+      <c r="J4" t="s" s="472">
         <v>129</v>
       </c>
     </row>
@@ -1494,7 +1563,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="404">
+      <c r="J5" t="s" s="473">
         <v>131</v>
       </c>
     </row>
@@ -1526,7 +1595,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="405">
+      <c r="J6" t="s" s="474">
         <v>129</v>
       </c>
     </row>
@@ -1558,7 +1627,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="406">
+      <c r="J7" t="s" s="475">
         <v>129</v>
       </c>
     </row>
@@ -1590,7 +1659,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="407">
+      <c r="J8" t="s" s="476">
         <v>129</v>
       </c>
     </row>
@@ -1622,7 +1691,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="408">
+      <c r="J9" t="s" s="477">
         <v>131</v>
       </c>
     </row>
@@ -1654,7 +1723,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="409">
+      <c r="J10" t="s" s="478">
         <v>131</v>
       </c>
     </row>
@@ -1686,7 +1755,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="410">
+      <c r="J11" t="s" s="479">
         <v>129</v>
       </c>
     </row>
@@ -1716,7 +1785,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="411">
+      <c r="J12" t="s" s="480">
         <v>131</v>
       </c>
     </row>
@@ -1748,7 +1817,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="412">
+      <c r="J13" t="s" s="481">
         <v>129</v>
       </c>
     </row>
@@ -1780,7 +1849,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="413">
+      <c r="J14" t="s" s="482">
         <v>129</v>
       </c>
     </row>
@@ -1810,7 +1879,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="414">
+      <c r="J15" t="s" s="483">
         <v>129</v>
       </c>
     </row>
@@ -1842,7 +1911,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="415">
+      <c r="J16" t="s" s="484">
         <v>129</v>
       </c>
     </row>
@@ -1874,7 +1943,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="416">
+      <c r="J17" t="s" s="485">
         <v>129</v>
       </c>
     </row>
@@ -1906,7 +1975,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="417">
+      <c r="J18" t="s" s="486">
         <v>129</v>
       </c>
     </row>
@@ -1938,7 +2007,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="418">
+      <c r="J19" t="s" s="487">
         <v>129</v>
       </c>
     </row>
@@ -1968,7 +2037,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="419">
+      <c r="J20" t="s" s="488">
         <v>131</v>
       </c>
     </row>
@@ -2000,7 +2069,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="420">
+      <c r="J21" t="s" s="489">
         <v>129</v>
       </c>
     </row>
@@ -2030,7 +2099,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="421">
+      <c r="J22" t="s" s="490">
         <v>131</v>
       </c>
     </row>
@@ -2060,7 +2129,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="422">
+      <c r="J23" t="s" s="491">
         <v>131</v>
       </c>
     </row>
@@ -2075,7 +2144,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="423">
+      <c r="J24" t="s" s="492">
         <v>131</v>
       </c>
     </row>

--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="493">
+  <cellXfs count="539">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1469,7 +1515,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="470">
+      <c r="J2" t="s" s="516">
         <v>129</v>
       </c>
     </row>
@@ -1501,7 +1547,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="471">
+      <c r="J3" t="s" s="517">
         <v>129</v>
       </c>
     </row>
@@ -1533,7 +1579,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="472">
+      <c r="J4" t="s" s="518">
         <v>129</v>
       </c>
     </row>
@@ -1563,7 +1609,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="473">
+      <c r="J5" t="s" s="519">
         <v>131</v>
       </c>
     </row>
@@ -1595,7 +1641,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="474">
+      <c r="J6" t="s" s="520">
         <v>129</v>
       </c>
     </row>
@@ -1627,7 +1673,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="475">
+      <c r="J7" t="s" s="521">
         <v>129</v>
       </c>
     </row>
@@ -1659,7 +1705,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="476">
+      <c r="J8" t="s" s="522">
         <v>129</v>
       </c>
     </row>
@@ -1691,7 +1737,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="477">
+      <c r="J9" t="s" s="523">
         <v>131</v>
       </c>
     </row>
@@ -1723,7 +1769,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="478">
+      <c r="J10" t="s" s="524">
         <v>131</v>
       </c>
     </row>
@@ -1755,7 +1801,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="479">
+      <c r="J11" t="s" s="525">
         <v>129</v>
       </c>
     </row>
@@ -1785,7 +1831,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="480">
+      <c r="J12" t="s" s="526">
         <v>131</v>
       </c>
     </row>
@@ -1817,7 +1863,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="481">
+      <c r="J13" t="s" s="527">
         <v>129</v>
       </c>
     </row>
@@ -1849,7 +1895,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="482">
+      <c r="J14" t="s" s="528">
         <v>129</v>
       </c>
     </row>
@@ -1879,7 +1925,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="483">
+      <c r="J15" t="s" s="529">
         <v>129</v>
       </c>
     </row>
@@ -1911,7 +1957,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="484">
+      <c r="J16" t="s" s="530">
         <v>129</v>
       </c>
     </row>
@@ -1943,7 +1989,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="485">
+      <c r="J17" t="s" s="531">
         <v>129</v>
       </c>
     </row>
@@ -1975,7 +2021,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="486">
+      <c r="J18" t="s" s="532">
         <v>129</v>
       </c>
     </row>
@@ -2007,7 +2053,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="487">
+      <c r="J19" t="s" s="533">
         <v>129</v>
       </c>
     </row>
@@ -2037,7 +2083,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="488">
+      <c r="J20" t="s" s="534">
         <v>131</v>
       </c>
     </row>
@@ -2069,7 +2115,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="489">
+      <c r="J21" t="s" s="535">
         <v>129</v>
       </c>
     </row>
@@ -2099,7 +2145,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="490">
+      <c r="J22" t="s" s="536">
         <v>131</v>
       </c>
     </row>
@@ -2129,7 +2175,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="491">
+      <c r="J23" t="s" s="537">
         <v>131</v>
       </c>
     </row>
@@ -2144,7 +2190,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="492">
+      <c r="J24" t="s" s="538">
         <v>131</v>
       </c>
     </row>

--- a/src/test/resources/profile_data.xlsx
+++ b/src/test/resources/profile_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="138">
   <si>
     <t>Full Name</t>
   </si>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="539">
+  <cellXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +877,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1515,7 +1538,7 @@
       <c r="I2" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J2" t="s" s="516">
+      <c r="J2" t="s" s="539">
         <v>129</v>
       </c>
     </row>
@@ -1547,7 +1570,7 @@
       <c r="I3" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="J3" t="s" s="517">
+      <c r="J3" t="s" s="540">
         <v>129</v>
       </c>
     </row>
@@ -1579,7 +1602,7 @@
       <c r="I4" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J4" t="s" s="518">
+      <c r="J4" t="s" s="541">
         <v>129</v>
       </c>
     </row>
@@ -1609,7 +1632,7 @@
       <c r="I5" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J5" t="s" s="519">
+      <c r="J5" t="s" s="542">
         <v>131</v>
       </c>
     </row>
@@ -1641,7 +1664,7 @@
       <c r="I6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J6" t="s" s="520">
+      <c r="J6" t="s" s="543">
         <v>129</v>
       </c>
     </row>
@@ -1673,7 +1696,7 @@
       <c r="I7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J7" t="s" s="521">
+      <c r="J7" t="s" s="544">
         <v>129</v>
       </c>
     </row>
@@ -1705,7 +1728,7 @@
       <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="522">
+      <c r="J8" t="s" s="545">
         <v>129</v>
       </c>
     </row>
@@ -1737,7 +1760,7 @@
       <c r="I9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="J9" t="s" s="523">
+      <c r="J9" t="s" s="546">
         <v>131</v>
       </c>
     </row>
@@ -1769,7 +1792,7 @@
       <c r="I10" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="J10" t="s" s="524">
+      <c r="J10" t="s" s="547">
         <v>131</v>
       </c>
     </row>
@@ -1801,7 +1824,7 @@
       <c r="I11" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J11" t="s" s="525">
+      <c r="J11" t="s" s="548">
         <v>129</v>
       </c>
     </row>
@@ -1831,7 +1854,7 @@
       <c r="I12" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J12" t="s" s="526">
+      <c r="J12" t="s" s="549">
         <v>131</v>
       </c>
     </row>
@@ -1863,7 +1886,7 @@
       <c r="I13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J13" t="s" s="527">
+      <c r="J13" t="s" s="550">
         <v>129</v>
       </c>
     </row>
@@ -1895,7 +1918,7 @@
       <c r="I14" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J14" t="s" s="528">
+      <c r="J14" t="s" s="551">
         <v>129</v>
       </c>
     </row>
@@ -1925,7 +1948,7 @@
       <c r="I15" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="J15" t="s" s="529">
+      <c r="J15" t="s" s="552">
         <v>129</v>
       </c>
     </row>
@@ -1957,7 +1980,7 @@
       <c r="I16" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J16" t="s" s="530">
+      <c r="J16" t="s" s="553">
         <v>129</v>
       </c>
     </row>
@@ -1989,7 +2012,7 @@
       <c r="I17" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J17" t="s" s="531">
+      <c r="J17" t="s" s="554">
         <v>129</v>
       </c>
     </row>
@@ -2021,7 +2044,7 @@
       <c r="I18" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J18" t="s" s="532">
+      <c r="J18" t="s" s="555">
         <v>129</v>
       </c>
     </row>
@@ -2053,7 +2076,7 @@
       <c r="I19" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="J19" t="s" s="533">
+      <c r="J19" t="s" s="556">
         <v>129</v>
       </c>
     </row>
@@ -2083,7 +2106,7 @@
       <c r="I20" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J20" t="s" s="534">
+      <c r="J20" t="s" s="557">
         <v>131</v>
       </c>
     </row>
@@ -2115,7 +2138,7 @@
       <c r="I21" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="J21" t="s" s="535">
+      <c r="J21" t="s" s="558">
         <v>129</v>
       </c>
     </row>
@@ -2145,7 +2168,7 @@
       <c r="I22" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J22" t="s" s="536">
+      <c r="J22" t="s" s="559">
         <v>131</v>
       </c>
     </row>
@@ -2175,7 +2198,7 @@
       <c r="I23" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J23" t="s" s="537">
+      <c r="J23" t="s" s="560">
         <v>131</v>
       </c>
     </row>
@@ -2190,7 +2213,7 @@
       <c r="I24" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J24" t="s" s="538">
+      <c r="J24" t="s" s="561">
         <v>131</v>
       </c>
     </row>
